--- a/back-end/AcademicManagementSystem/AcademicManagementSystem/TemplateExcel/Template_Student.xlsx
+++ b/back-end/AcademicManagementSystem/AcademicManagementSystem/TemplateExcel/Template_Student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bang/Desktop/dev/Capstone/academic-management-system/back-end/AcademicManagementSystem/AcademicManagementSystem/TemplateExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F694BD7-618B-934F-90EF-3284598CB155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4CD8CF-A42A-C148-972F-47489F0035DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="19440" xr2:uid="{A1D1251F-1770-0243-8408-C0317997D5A5}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Danhsach" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Danhsach!$A$2:$GZ$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Danhsach!$A$2:$HA$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="196">
   <si>
     <t>No.</t>
   </si>
@@ -612,6 +612,12 @@
   </si>
   <si>
     <t>Số 3, Lê Khôi, Quang Trung, Vinh, Nghệ An</t>
+  </si>
+  <si>
+    <t>Fee plan</t>
+  </si>
+  <si>
+    <t>Promotion</t>
   </si>
 </sst>
 </file>
@@ -902,7 +908,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1079,6 +1085,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1086,7 +1099,31 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{A35365D1-E0B4-D445-9319-03480DDA8151}"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="85">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor indexed="41"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2050,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DCEF4B-8603-584A-95D1-E6EF8258CC52}">
-  <dimension ref="A1:GX20"/>
+  <dimension ref="A1:GY20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX10" sqref="AX10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2064,7 +2101,7 @@
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="50" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="17.1640625" style="15" customWidth="1"/>
@@ -2093,9 +2130,10 @@
     <col min="35" max="35" width="12.33203125" customWidth="1"/>
     <col min="36" max="36" width="11.5" customWidth="1"/>
     <col min="37" max="37" width="10.83203125" customWidth="1"/>
+    <col min="48" max="48" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:206" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A1" s="21">
         <v>1</v>
       </c>
@@ -2234,8 +2272,14 @@
       <c r="AT1" s="21">
         <v>46</v>
       </c>
+      <c r="AU1" s="21">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="21">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:206" s="46" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:207" s="46" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2374,8 +2418,12 @@
       <c r="AT2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
+      <c r="AU2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="AW2" s="45"/>
       <c r="AX2" s="45"/>
       <c r="AY2" s="45"/>
@@ -2534,8 +2582,9 @@
       <c r="GV2" s="45"/>
       <c r="GW2" s="45"/>
       <c r="GX2" s="45"/>
+      <c r="GY2" s="45"/>
     </row>
-    <row r="3" spans="1:206" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -2554,7 +2603,7 @@
       <c r="F3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="52">
         <v>44061</v>
       </c>
       <c r="H3" s="24" t="s">
@@ -2646,8 +2695,12 @@
       <c r="AT3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="14"/>
+      <c r="AU3" s="53">
+        <v>5000000</v>
+      </c>
+      <c r="AV3" s="14">
+        <v>0</v>
+      </c>
       <c r="AW3" s="14"/>
       <c r="AX3" s="14"/>
       <c r="AY3" s="14"/>
@@ -2806,8 +2859,9 @@
       <c r="GV3" s="14"/>
       <c r="GW3" s="14"/>
       <c r="GX3" s="14"/>
+      <c r="GY3" s="14"/>
     </row>
-    <row r="4" spans="1:206" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -2826,7 +2880,7 @@
       <c r="F4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="52">
         <v>44061</v>
       </c>
       <c r="H4" s="24" t="s">
@@ -2916,8 +2970,12 @@
         <v>41</v>
       </c>
       <c r="AT4" s="31"/>
-      <c r="AU4" s="14"/>
-      <c r="AV4" s="14"/>
+      <c r="AU4" s="53">
+        <v>5000000</v>
+      </c>
+      <c r="AV4" s="14">
+        <v>12</v>
+      </c>
       <c r="AW4" s="14"/>
       <c r="AX4" s="14"/>
       <c r="AY4" s="14"/>
@@ -3076,8 +3134,9 @@
       <c r="GV4" s="14"/>
       <c r="GW4" s="14"/>
       <c r="GX4" s="14"/>
+      <c r="GY4" s="14"/>
     </row>
-    <row r="5" spans="1:206" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -3096,7 +3155,7 @@
       <c r="F5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="52">
         <v>44061</v>
       </c>
       <c r="H5" s="24" t="s">
@@ -3186,8 +3245,12 @@
         <v>41</v>
       </c>
       <c r="AT5" s="31"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="14"/>
+      <c r="AU5" s="53">
+        <v>5000000</v>
+      </c>
+      <c r="AV5" s="14">
+        <v>0</v>
+      </c>
       <c r="AW5" s="14"/>
       <c r="AX5" s="14"/>
       <c r="AY5" s="14"/>
@@ -3346,8 +3409,9 @@
       <c r="GV5" s="14"/>
       <c r="GW5" s="14"/>
       <c r="GX5" s="14"/>
+      <c r="GY5" s="14"/>
     </row>
-    <row r="6" spans="1:206" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -3366,7 +3430,7 @@
       <c r="F6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="52">
         <v>44061</v>
       </c>
       <c r="H6" s="24" t="s">
@@ -3460,8 +3524,12 @@
       <c r="AT6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AU6" s="14"/>
-      <c r="AV6" s="14"/>
+      <c r="AU6" s="53">
+        <v>5000000</v>
+      </c>
+      <c r="AV6" s="14">
+        <v>15</v>
+      </c>
       <c r="AW6" s="14"/>
       <c r="AX6" s="14"/>
       <c r="AY6" s="14"/>
@@ -3620,8 +3688,9 @@
       <c r="GV6" s="14"/>
       <c r="GW6" s="14"/>
       <c r="GX6" s="14"/>
+      <c r="GY6" s="14"/>
     </row>
-    <row r="7" spans="1:206" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -3640,7 +3709,7 @@
       <c r="F7" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="52">
         <v>44061</v>
       </c>
       <c r="H7" s="24" t="s">
@@ -3730,8 +3799,12 @@
         <v>41</v>
       </c>
       <c r="AT7" s="31"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
+      <c r="AU7" s="53">
+        <v>5000000</v>
+      </c>
+      <c r="AV7" s="14">
+        <v>12</v>
+      </c>
       <c r="AW7" s="14"/>
       <c r="AX7" s="14"/>
       <c r="AY7" s="14"/>
@@ -3890,8 +3963,9 @@
       <c r="GV7" s="14"/>
       <c r="GW7" s="14"/>
       <c r="GX7" s="14"/>
+      <c r="GY7" s="14"/>
     </row>
-    <row r="8" spans="1:206" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -3910,7 +3984,7 @@
       <c r="F8" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="52">
         <v>44061</v>
       </c>
       <c r="H8" s="24" t="s">
@@ -4002,8 +4076,12 @@
         <v>41</v>
       </c>
       <c r="AT8" s="31"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
+      <c r="AU8" s="53">
+        <v>5000000</v>
+      </c>
+      <c r="AV8" s="14">
+        <v>12</v>
+      </c>
       <c r="AW8" s="14"/>
       <c r="AX8" s="14"/>
       <c r="AY8" s="14"/>
@@ -4162,8 +4240,9 @@
       <c r="GV8" s="14"/>
       <c r="GW8" s="14"/>
       <c r="GX8" s="14"/>
+      <c r="GY8" s="14"/>
     </row>
-    <row r="9" spans="1:206" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -4182,7 +4261,7 @@
       <c r="F9" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="52">
         <v>44061</v>
       </c>
       <c r="H9" s="35" t="s">
@@ -4268,10 +4347,18 @@
       <c r="AP9" s="21"/>
       <c r="AQ9" s="21"/>
       <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
+      <c r="AS9" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="AT9" s="21"/>
+      <c r="AU9" s="53">
+        <v>5000000</v>
+      </c>
+      <c r="AV9" s="14">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:206" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:207" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -4290,7 +4377,7 @@
       <c r="F10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="52">
         <v>44061</v>
       </c>
       <c r="H10" s="35" t="s">
@@ -4376,10 +4463,20 @@
       <c r="AP10" s="21"/>
       <c r="AQ10" s="21"/>
       <c r="AR10" s="21"/>
-      <c r="AS10" s="21"/>
-      <c r="AT10" s="21"/>
+      <c r="AS10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT10" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU10" s="53">
+        <v>5000000</v>
+      </c>
+      <c r="AV10" s="14">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:206" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:207" x14ac:dyDescent="0.2">
       <c r="O15" s="16"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="16"/>
@@ -4389,157 +4486,190 @@
       <c r="R20" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:GZ10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:HA10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="AF3:AF10">
-    <cfRule type="expression" dxfId="81" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="91" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="92" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="93" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:N6 M7:M8">
-    <cfRule type="expression" dxfId="78" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="94" stopIfTrue="1">
       <formula>$F3="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="95" stopIfTrue="1">
       <formula>$F3="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="96" stopIfTrue="1">
       <formula>$F3="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:D10 E10 G9:I10 W9:X9 X10 Z9:Z10 AB9:AB10 AD9:AF10 A4:A10 R3:AF8 A3:N3 B4:N6 B7:M8">
-    <cfRule type="expression" dxfId="75" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="97" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="98" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="99" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2 AA2">
-    <cfRule type="expression" dxfId="72" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="100" stopIfTrue="1">
       <formula>#REF!="Chú ý"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="71" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="88" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="89" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="90" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9:S9">
-    <cfRule type="expression" dxfId="68" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="82" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="83" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="84" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:S10">
-    <cfRule type="expression" dxfId="65" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="79" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="80" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="81" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:V9">
-    <cfRule type="expression" dxfId="62" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="76" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="77" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="78" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10:V10">
-    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="73" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="74" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="75" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="expression" dxfId="56" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="70" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="71" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="72" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10">
-    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="58" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="59" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="60" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS3:AT8">
-    <cfRule type="expression" dxfId="44" priority="40" stopIfTrue="1">
+  <conditionalFormatting sqref="AS3:AU3 AS4:AT8 AU4:AU10">
+    <cfRule type="expression" dxfId="53" priority="49" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="50" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR3:AR8">
-    <cfRule type="expression" dxfId="41" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="52" stopIfTrue="1">
       <formula>$H3="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="53" stopIfTrue="1">
       <formula>$H3="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="54" stopIfTrue="1">
       <formula>$H3="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR3:AR8">
-    <cfRule type="expression" dxfId="38" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="55" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="56" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="57" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
+    <cfRule type="expression" dxfId="44" priority="46" stopIfTrue="1">
+      <formula>#REF!="Delay"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
+      <formula>#REF!="Finish"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="48" stopIfTrue="1">
+      <formula>#REF!="Drop-out"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="expression" dxfId="41" priority="43" stopIfTrue="1">
+      <formula>#REF!="Delay"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="44" stopIfTrue="1">
+      <formula>#REF!="Finish"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="45" stopIfTrue="1">
+      <formula>#REF!="Drop-out"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
+      <formula>#REF!="Delay"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="41" stopIfTrue="1">
+      <formula>#REF!="Finish"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="42" stopIfTrue="1">
+      <formula>#REF!="Drop-out"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6">
     <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
@@ -4550,40 +4680,40 @@
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4">
-    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
+  <conditionalFormatting sqref="Q7">
+    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="Q8">
+    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6">
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>#REF!="Finish"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
+  <conditionalFormatting sqref="Q10">
     <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
@@ -4594,7 +4724,7 @@
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
+  <conditionalFormatting sqref="AC9">
     <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
@@ -4605,7 +4735,7 @@
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
+  <conditionalFormatting sqref="N8:N10">
     <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
@@ -4616,7 +4746,7 @@
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
+  <conditionalFormatting sqref="T9">
     <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
@@ -4627,7 +4757,7 @@
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC9">
+  <conditionalFormatting sqref="T10">
     <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
@@ -4638,7 +4768,7 @@
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N10">
+  <conditionalFormatting sqref="AS9">
     <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
@@ -4649,7 +4779,7 @@
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T9">
+  <conditionalFormatting sqref="AS10">
     <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
@@ -4660,7 +4790,7 @@
       <formula>#REF!="Drop-out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T10">
+  <conditionalFormatting sqref="AT10">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>#REF!="Delay"</formula>
     </cfRule>
